--- a/Team-Data/2014-15/3-1-2014-15.xlsx
+++ b/Team-Data/2014-15/3-1-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>6.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -756,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -819,7 +886,7 @@
         <v>7</v>
       </c>
       <c r="BC2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>0.404</v>
+        <v>0.411</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -866,49 +933,49 @@
         <v>39.2</v>
       </c>
       <c r="J3" t="n">
-        <v>88.5</v>
+        <v>88.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.443</v>
+        <v>0.445</v>
       </c>
       <c r="L3" t="n">
         <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="N3" t="n">
-        <v>0.331</v>
+        <v>0.332</v>
       </c>
       <c r="O3" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P3" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q3" t="n">
         <v>0.752</v>
       </c>
       <c r="R3" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="S3" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T3" t="n">
-        <v>44.1</v>
+        <v>43.9</v>
       </c>
       <c r="U3" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V3" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y3" t="n">
         <v>5.5</v>
@@ -923,19 +990,19 @@
         <v>101.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG3" t="n">
         <v>20</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>7</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL3" t="n">
         <v>12</v>
@@ -965,22 +1032,22 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS3" t="n">
         <v>10</v>
       </c>
       <c r="AT3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
@@ -989,7 +1056,7 @@
         <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1001,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="BC3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-3</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
@@ -1132,7 +1199,7 @@
         <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>20</v>
@@ -1153,10 +1220,10 @@
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU4" t="n">
         <v>24</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -1212,52 +1279,52 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
         <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>0.421</v>
+        <v>0.411</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J5" t="n">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.424</v>
+        <v>0.423</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.313</v>
+        <v>0.311</v>
       </c>
       <c r="O5" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P5" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q5" t="n">
         <v>0.738</v>
       </c>
       <c r="R5" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S5" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T5" t="n">
         <v>44</v>
@@ -1266,7 +1333,7 @@
         <v>20.4</v>
       </c>
       <c r="V5" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
@@ -1275,7 +1342,7 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
         <v>18.7</v>
@@ -1284,22 +1351,22 @@
         <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.4</v>
+        <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>4</v>
@@ -1320,7 +1387,7 @@
         <v>26</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
@@ -1335,13 +1402,13 @@
         <v>23</v>
       </c>
       <c r="AS5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="n">
         <v>37</v>
       </c>
       <c r="F6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>0.617</v>
+        <v>0.627</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J6" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="L6" t="n">
         <v>7.7</v>
@@ -1424,16 +1491,16 @@
         <v>21.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.784</v>
+        <v>0.785</v>
       </c>
       <c r="R6" t="n">
         <v>12.3</v>
@@ -1442,52 +1509,52 @@
         <v>33.7</v>
       </c>
       <c r="T6" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="U6" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V6" t="n">
         <v>14.1</v>
       </c>
       <c r="W6" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X6" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z6" t="n">
         <v>18.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>8</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH6" t="n">
         <v>5</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>16</v>
@@ -1523,19 +1590,19 @@
         <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
         <v>11</v>
       </c>
       <c r="AW6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX6" t="n">
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -1576,64 +1643,64 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" t="n">
         <v>37</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>0.607</v>
+        <v>0.617</v>
       </c>
       <c r="H7" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I7" t="n">
         <v>37.5</v>
       </c>
       <c r="J7" t="n">
-        <v>82.40000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L7" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O7" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P7" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.751</v>
+        <v>0.754</v>
       </c>
       <c r="R7" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S7" t="n">
         <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U7" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V7" t="n">
         <v>14</v>
       </c>
       <c r="W7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
         <v>4.1</v>
@@ -1642,7 +1709,7 @@
         <v>4.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="AA7" t="n">
         <v>20.9</v>
@@ -1651,58 +1718,58 @@
         <v>102.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
         <v>8</v>
       </c>
       <c r="AM7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU7" t="n">
         <v>13</v>
@@ -1711,7 +1778,7 @@
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX7" t="n">
         <v>25</v>
@@ -1720,16 +1787,16 @@
         <v>14</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" t="n">
         <v>39</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>0.65</v>
+        <v>0.639</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J8" t="n">
-        <v>85.90000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="K8" t="n">
         <v>0.462</v>
@@ -1785,7 +1852,7 @@
         <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="N8" t="n">
         <v>0.353</v>
@@ -1794,25 +1861,25 @@
         <v>16.5</v>
       </c>
       <c r="P8" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R8" t="n">
         <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V8" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W8" t="n">
         <v>8.199999999999999</v>
@@ -1830,25 +1897,25 @@
         <v>21.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1866,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
         <v>20</v>
@@ -1875,13 +1942,13 @@
         <v>20</v>
       </c>
       <c r="AQ8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
         <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" t="n">
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
@@ -1958,28 +2025,28 @@
         <v>36.9</v>
       </c>
       <c r="J9" t="n">
-        <v>86.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.426</v>
+        <v>0.427</v>
       </c>
       <c r="L9" t="n">
         <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.311</v>
+        <v>0.312</v>
       </c>
       <c r="O9" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P9" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.732</v>
+        <v>0.734</v>
       </c>
       <c r="R9" t="n">
         <v>12.3</v>
@@ -1991,7 +2058,7 @@
         <v>44.7</v>
       </c>
       <c r="U9" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V9" t="n">
         <v>14.1</v>
@@ -2003,22 +2070,22 @@
         <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC9" t="n">
         <v>-4.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,7 +2097,7 @@
         <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
         <v>18</v>
@@ -2048,22 +2115,22 @@
         <v>13</v>
       </c>
       <c r="AN9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR9" t="n">
         <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT9" t="n">
         <v>8</v>
@@ -2072,10 +2139,10 @@
         <v>17</v>
       </c>
       <c r="AV9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX9" t="n">
         <v>15</v>
@@ -2084,10 +2151,10 @@
         <v>30</v>
       </c>
       <c r="AZ9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -2200,10 +2267,10 @@
         <v>-1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
         <v>22</v>
@@ -2233,7 +2300,7 @@
         <v>20</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
         <v>13</v>
@@ -2254,13 +2321,13 @@
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
         <v>14</v>
       </c>
       <c r="AX10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -2304,64 +2371,64 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" t="n">
         <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.804</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="J11" t="n">
-        <v>87.3</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L11" t="n">
         <v>10.6</v>
       </c>
       <c r="M11" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="O11" t="n">
         <v>16.3</v>
       </c>
       <c r="P11" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R11" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S11" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="T11" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>27.1</v>
+        <v>27.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W11" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X11" t="n">
         <v>6</v>
@@ -2379,10 +2446,10 @@
         <v>110.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2415,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
         <v>25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
@@ -2430,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
@@ -2442,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -2498,10 +2565,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J12" t="n">
         <v>84.09999999999999</v>
@@ -2513,58 +2580,58 @@
         <v>11.7</v>
       </c>
       <c r="M12" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="P12" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.72</v>
+        <v>0.717</v>
       </c>
       <c r="R12" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S12" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.8</v>
       </c>
       <c r="U12" t="n">
         <v>21.8</v>
       </c>
       <c r="V12" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="W12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X12" t="n">
         <v>4.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2576,10 +2643,10 @@
         <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
@@ -2600,7 +2667,7 @@
         <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2612,7 +2679,7 @@
         <v>23</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU12" t="n">
         <v>11</v>
@@ -2621,25 +2688,25 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" t="n">
         <v>34</v>
       </c>
       <c r="G13" t="n">
-        <v>0.424</v>
+        <v>0.414</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,19 +2753,19 @@
         <v>36.4</v>
       </c>
       <c r="J13" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.333</v>
+        <v>0.335</v>
       </c>
       <c r="O13" t="n">
         <v>16.3</v>
@@ -2713,28 +2780,28 @@
         <v>10.5</v>
       </c>
       <c r="S13" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="T13" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U13" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V13" t="n">
         <v>14.3</v>
       </c>
       <c r="W13" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y13" t="n">
         <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA13" t="n">
         <v>20.9</v>
@@ -2743,22 +2810,22 @@
         <v>96</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="n">
         <v>18</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2776,16 +2843,16 @@
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>21</v>
@@ -2794,7 +2861,7 @@
         <v>4</v>
       </c>
       <c r="AT13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU13" t="n">
         <v>18</v>
@@ -2803,10 +2870,10 @@
         <v>16</v>
       </c>
       <c r="AW13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY13" t="n">
         <v>18</v>
@@ -2815,13 +2882,13 @@
         <v>16</v>
       </c>
       <c r="BA13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="n">
         <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>0.65</v>
+        <v>0.644</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2880,58 +2947,58 @@
         <v>26.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
       <c r="O14" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P14" t="n">
         <v>25.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.724</v>
+        <v>0.727</v>
       </c>
       <c r="R14" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T14" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U14" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="V14" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="W14" t="n">
         <v>7.8</v>
       </c>
       <c r="X14" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA14" t="n">
         <v>21.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2940,13 +3007,13 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2955,10 +3022,10 @@
         <v>5</v>
       </c>
       <c r="AM14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2976,7 +3043,7 @@
         <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -2988,7 +3055,7 @@
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -2997,13 +3064,13 @@
         <v>17</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB14" t="n">
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -3047,70 +3114,70 @@
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>86.40000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L15" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M15" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.8</v>
+        <v>18.1</v>
       </c>
       <c r="P15" t="n">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.74</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
         <v>11.8</v>
       </c>
       <c r="S15" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="T15" t="n">
-        <v>44</v>
+        <v>43.8</v>
       </c>
       <c r="U15" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W15" t="n">
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
         <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
         <v>5</v>
@@ -3140,49 +3207,49 @@
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
         <v>10</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>4</v>
       </c>
       <c r="AW15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX15" t="n">
         <v>18</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BB15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,10 +3374,10 @@
         <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3340,7 +3407,7 @@
         <v>13</v>
       </c>
       <c r="AT16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU16" t="n">
         <v>10</v>
@@ -3355,7 +3422,7 @@
         <v>20</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3486,7 +3553,7 @@
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
@@ -3528,7 +3595,7 @@
         <v>28</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW17" t="n">
         <v>11</v>
@@ -3543,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -3656,22 +3723,22 @@
         <v>1.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
         <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>25</v>
@@ -3680,13 +3747,13 @@
         <v>6</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
       </c>
       <c r="AN18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
         <v>27</v>
@@ -3698,7 +3765,7 @@
         <v>8</v>
       </c>
       <c r="AR18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
@@ -3716,13 +3783,13 @@
         <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
         <v>12</v>
       </c>
       <c r="AZ18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3868,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
@@ -3877,10 +3944,10 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3889,7 +3956,7 @@
         <v>25</v>
       </c>
       <c r="AU19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV19" t="n">
         <v>24</v>
@@ -3901,13 +3968,13 @@
         <v>28</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
         <v>11</v>
       </c>
       <c r="BA19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -3957,55 +4024,55 @@
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>82.8</v>
+        <v>83.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
         <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O20" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P20" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.768</v>
+        <v>0.762</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="S20" t="n">
         <v>31.9</v>
       </c>
       <c r="T20" t="n">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="U20" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V20" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W20" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
         <v>18.8</v>
@@ -4014,13 +4081,13 @@
         <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -4038,13 +4105,13 @@
         <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM20" t="n">
         <v>24</v>
@@ -4062,16 +4129,16 @@
         <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
         <v>19</v>
       </c>
       <c r="AT20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU20" t="n">
         <v>15</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>14</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4083,7 +4150,7 @@
         <v>6</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
         <v>6</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-7.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
       </c>
       <c r="AF21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG21" t="n">
         <v>30</v>
@@ -4253,13 +4320,13 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -4306,37 +4373,37 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" t="n">
         <v>27</v>
       </c>
       <c r="G22" t="n">
-        <v>0.55</v>
+        <v>0.542</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J22" t="n">
-        <v>86</v>
+        <v>85.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L22" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.327</v>
+        <v>0.326</v>
       </c>
       <c r="O22" t="n">
         <v>18.1</v>
@@ -4348,19 +4415,19 @@
         <v>0.76</v>
       </c>
       <c r="R22" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S22" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="T22" t="n">
-        <v>47.6</v>
+        <v>47.4</v>
       </c>
       <c r="U22" t="n">
         <v>20.6</v>
       </c>
       <c r="V22" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W22" t="n">
         <v>7.2</v>
@@ -4372,19 +4439,19 @@
         <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4396,13 +4463,13 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>9</v>
       </c>
       <c r="AJ22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK22" t="n">
         <v>19</v>
@@ -4417,7 +4484,7 @@
         <v>25</v>
       </c>
       <c r="AO22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
         <v>11</v>
@@ -4426,7 +4493,7 @@
         <v>16</v>
       </c>
       <c r="AR22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
@@ -4438,22 +4505,22 @@
         <v>23</v>
       </c>
       <c r="AV22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -4506,10 +4573,10 @@
         <v>37.3</v>
       </c>
       <c r="J23" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
@@ -4530,37 +4597,37 @@
         <v>0.728</v>
       </c>
       <c r="R23" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="U23" t="n">
         <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA23" t="n">
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC23" t="n">
         <v>-5.5</v>
@@ -4587,10 +4654,10 @@
         <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4611,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
@@ -4629,10 +4696,10 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -4670,64 +4737,64 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
       </c>
       <c r="F24" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24" t="n">
-        <v>0.22</v>
+        <v>0.224</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="J24" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.41</v>
+        <v>0.411</v>
       </c>
       <c r="L24" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M24" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.316</v>
+        <v>0.317</v>
       </c>
       <c r="O24" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P24" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.68</v>
+        <v>0.681</v>
       </c>
       <c r="R24" t="n">
         <v>11.4</v>
       </c>
       <c r="S24" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T24" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U24" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="V24" t="n">
         <v>18.6</v>
       </c>
       <c r="W24" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X24" t="n">
         <v>6</v>
@@ -4736,31 +4803,31 @@
         <v>5.3</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>90.09999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.5</v>
+        <v>-10.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
       </c>
       <c r="AF24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4784,7 +4851,7 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4793,28 +4860,28 @@
         <v>10</v>
       </c>
       <c r="AS24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
       </c>
       <c r="AW24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX24" t="n">
         <v>2</v>
       </c>
-      <c r="AX24" t="n">
-        <v>4</v>
-      </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
         <v>15</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -4942,7 +5009,7 @@
         <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
@@ -4957,10 +5024,10 @@
         <v>7</v>
       </c>
       <c r="AM25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>17</v>
@@ -4975,13 +5042,13 @@
         <v>15</v>
       </c>
       <c r="AS25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV25" t="n">
         <v>23</v>
@@ -4990,7 +5057,7 @@
         <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -5034,88 +5101,88 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="n">
         <v>19</v>
       </c>
       <c r="G26" t="n">
-        <v>0.672</v>
+        <v>0.667</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J26" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="K26" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L26" t="n">
         <v>10.1</v>
       </c>
       <c r="M26" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="N26" t="n">
         <v>0.363</v>
       </c>
       <c r="O26" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P26" t="n">
         <v>20</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.801</v>
+        <v>0.799</v>
       </c>
       <c r="R26" t="n">
         <v>10.8</v>
       </c>
       <c r="S26" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="T26" t="n">
         <v>45.7</v>
       </c>
       <c r="U26" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V26" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W26" t="n">
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y26" t="n">
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.5</v>
+        <v>102.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AE26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
@@ -5124,16 +5191,16 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS26" t="n">
         <v>2</v>
@@ -5166,25 +5233,25 @@
         <v>9</v>
       </c>
       <c r="AV26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW26" t="n">
         <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA26" t="n">
         <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -5216,58 +5283,58 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="n">
         <v>20</v>
       </c>
       <c r="F27" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" t="n">
-        <v>0.351</v>
+        <v>0.357</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J27" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L27" t="n">
         <v>5.1</v>
       </c>
       <c r="M27" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O27" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="P27" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="Q27" t="n">
         <v>0.773</v>
       </c>
       <c r="R27" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S27" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="T27" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U27" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V27" t="n">
         <v>16.6</v>
@@ -5276,31 +5343,31 @@
         <v>6.3</v>
       </c>
       <c r="X27" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="AB27" t="n">
         <v>100.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.3</v>
+        <v>-4.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
@@ -5336,13 +5403,13 @@
         <v>9</v>
       </c>
       <c r="AR27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F28" t="n">
         <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>0.603</v>
+        <v>0.61</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,43 +5483,43 @@
         <v>37.9</v>
       </c>
       <c r="J28" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.452</v>
+        <v>0.454</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.357</v>
+        <v>0.36</v>
       </c>
       <c r="O28" t="n">
         <v>16.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R28" t="n">
         <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.1</v>
       </c>
       <c r="V28" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W28" t="n">
         <v>7.6</v>
@@ -5476,19 +5543,19 @@
         <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
       </c>
       <c r="AF28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
         <v>11</v>
@@ -5506,31 +5573,31 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
         <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
@@ -5539,19 +5606,19 @@
         <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>13</v>
       </c>
       <c r="BC28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>8</v>
       </c>
       <c r="AF29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG29" t="n">
         <v>8</v>
@@ -5688,7 +5755,7 @@
         <v>9</v>
       </c>
       <c r="AN29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5703,7 +5770,7 @@
         <v>13</v>
       </c>
       <c r="AS29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT29" t="n">
         <v>24</v>
@@ -5721,10 +5788,10 @@
         <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA29" t="n">
         <v>7</v>
@@ -5733,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>-1.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF30" t="n">
         <v>22</v>
@@ -5879,10 +5946,10 @@
         <v>16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>24</v>
@@ -5900,7 +5967,7 @@
         <v>17</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY30" t="n">
         <v>16</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
@@ -6058,7 +6125,7 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>20</v>
@@ -6070,7 +6137,7 @@
         <v>9</v>
       </c>
       <c r="AT31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU31" t="n">
         <v>5</v>
@@ -6088,10 +6155,10 @@
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA31" t="n">
         <v>20</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>19</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-1-2014-15</t>
+          <t>2015-03-01</t>
         </is>
       </c>
     </row>
